--- a/Resources/2001/Basic_Percentile_2001.xlsx
+++ b/Resources/2001/Basic_Percentile_2001.xlsx
@@ -1384,7 +1384,7 @@
     <t>Chris Webber</t>
   </si>
   <si>
-    <t>Tracy McGrady*</t>
+    <t>Tracy McGrady</t>
   </si>
   <si>
     <t>Antoine Walker</t>
@@ -1405,7 +1405,7 @@
     <t>Elton Brand</t>
   </si>
   <si>
-    <t>Karl Malone*</t>
+    <t>Karl Malone</t>
   </si>
   <si>
     <t>Rasheed Wallace</t>
@@ -1426,7 +1426,7 @@
     <t>Larry Hughes</t>
   </si>
   <si>
-    <t>Shaquille O'Neal*</t>
+    <t>Shaquille O'Neal</t>
   </si>
   <si>
     <t>Glenn Robinson</t>
@@ -1447,16 +1447,16 @@
     <t>Eddie Jones</t>
   </si>
   <si>
-    <t>Grant Hill*</t>
-  </si>
-  <si>
-    <t>Jason Kidd*</t>
-  </si>
-  <si>
-    <t>Gary Payton*</t>
-  </si>
-  <si>
-    <t>David Robinson*</t>
+    <t>Grant Hill</t>
+  </si>
+  <si>
+    <t>Jason Kidd</t>
+  </si>
+  <si>
+    <t>Gary Payton</t>
+  </si>
+  <si>
+    <t>David Robinson</t>
   </si>
   <si>
     <t>Michael Finley</t>
@@ -1468,7 +1468,7 @@
     <t>Bo Outlaw</t>
   </si>
   <si>
-    <t>Scottie Pippen*</t>
+    <t>Scottie Pippen</t>
   </si>
   <si>
     <t>Jalen Rose</t>
@@ -1480,7 +1480,7 @@
     <t>Clifford Robinson</t>
   </si>
   <si>
-    <t>Allen Iverson*</t>
+    <t>Allen Iverson</t>
   </si>
   <si>
     <t>Antawn Jamison</t>
@@ -1489,7 +1489,7 @@
     <t>Charles Oakley</t>
   </si>
   <si>
-    <t>Hakeem Olajuwon*</t>
+    <t>Hakeem Olajuwon</t>
   </si>
   <si>
     <t>Jamal Mashburn</t>
@@ -1525,7 +1525,7 @@
     <t>Juwan Howard</t>
   </si>
   <si>
-    <t>Ray Allen*</t>
+    <t>Ray Allen</t>
   </si>
   <si>
     <t>Mookie Blaylock</t>
@@ -1555,7 +1555,7 @@
     <t>Jermaine O'Neal</t>
   </si>
   <si>
-    <t>John Stockton*</t>
+    <t>John Stockton</t>
   </si>
   <si>
     <t>Anfernee Hardaway</t>
@@ -1597,7 +1597,7 @@
     <t>Michael Dickerson</t>
   </si>
   <si>
-    <t>Arvydas Sabonis*</t>
+    <t>Arvydas Sabonis</t>
   </si>
   <si>
     <t>Wally Szczerbiak</t>
@@ -1627,7 +1627,7 @@
     <t>David Wesley</t>
   </si>
   <si>
-    <t>Patrick Ewing*</t>
+    <t>Patrick Ewing</t>
   </si>
   <si>
     <t>Mike Bibby</t>
@@ -1651,7 +1651,7 @@
     <t>Alvin Williams</t>
   </si>
   <si>
-    <t>Reggie Miller*</t>
+    <t>Reggie Miller</t>
   </si>
   <si>
     <t>LaPhonso Ellis</t>
@@ -1660,7 +1660,7 @@
     <t>Horace Grant</t>
   </si>
   <si>
-    <t>Dikembe Mutombo*</t>
+    <t>Dikembe Mutombo</t>
   </si>
   <si>
     <t>Joe Smith</t>
@@ -1687,7 +1687,7 @@
     <t>Zydrunas Ilgauskas</t>
   </si>
   <si>
-    <t>Alonzo Mourning*</t>
+    <t>Alonzo Mourning</t>
   </si>
   <si>
     <t>Vin Baker</t>
@@ -1702,13 +1702,13 @@
     <t>Lamond Murray</t>
   </si>
   <si>
-    <t>Mitch Richmond*</t>
+    <t>Mitch Richmond</t>
   </si>
   <si>
     <t>Fred Hoiberg</t>
   </si>
   <si>
-    <t>Steve Nash*</t>
+    <t>Steve Nash</t>
   </si>
   <si>
     <t>Larry Johnson</t>
@@ -2038,7 +2038,7 @@
     <t>Chauncey Billups</t>
   </si>
   <si>
-    <t>Chris Mullin*</t>
+    <t>Chris Mullin</t>
   </si>
   <si>
     <t>Andrew DeClercq</t>
